--- a/Singapore/metro_network/station_line_list/station_list.xlsx
+++ b/Singapore/metro_network/station_line_list/station_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wei Zhou\Documents\zhouwei file\Github-Project\VeDa-Public-Transit-Network\Singapore\metro_network\station_line_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F42FB8-84C3-49FC-98D3-819E81B5BBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E9A03C-455E-4D98-BB5D-DB1FC8CBCAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="line_info" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="1101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="1101">
   <si>
     <t>East-West Line</t>
   </si>
@@ -4479,7 +4479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D3357A-7751-47E9-8470-47602D98DE82}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -10733,7 +10733,7 @@
     <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="G1" sqref="G1:P1"/>
-      <selection pane="topRight" activeCell="G33" sqref="G33:P33"/>
+      <selection pane="topRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13531,8 +13531,8 @@
   </sheetPr>
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:P9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13708,8 +13708,8 @@
         <v>352</v>
       </c>
       <c r="D4" s="25"/>
-      <c r="E4" s="25" t="s">
-        <v>449</v>
+      <c r="E4" s="25">
+        <v>45519</v>
       </c>
       <c r="F4" s="25"/>
       <c r="G4" t="s">
